--- a/Lineage Table.xlsx
+++ b/Lineage Table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac_air/Documents/Documents/Side Projects/Kaggle_Anomaly_Detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C588BF-C668-5E4A-A79A-D53810D4F1CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31D64BC-DA48-8B4E-AF4D-1B7C3D7935A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="500" windowWidth="26620" windowHeight="16940" xr2:uid="{D878CFBC-3F39-3C40-9357-2015BDADB0CF}"/>
+    <workbookView xWindow="1800" yWindow="500" windowWidth="26620" windowHeight="16940" activeTab="1" xr2:uid="{D878CFBC-3F39-3C40-9357-2015BDADB0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Baseline_Panel_level" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Iteration</t>
   </si>
@@ -70,6 +71,144 @@
   </si>
   <si>
     <t>r2 (metric being improved)</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>1BY6WEcLGh8j5v7</t>
+  </si>
+  <si>
+    <t>1IF53ai7Xc0U56Y</t>
+  </si>
+  <si>
+    <t>3PZuoBAID5Wc2HD</t>
+  </si>
+  <si>
+    <t>4UPUqMRk7TRMgml</t>
+  </si>
+  <si>
+    <t>7JYdWkrLSPkdwr4</t>
+  </si>
+  <si>
+    <t>81aHJ1q11NBPMrL</t>
+  </si>
+  <si>
+    <t>9kRcWv60rDACzjR</t>
+  </si>
+  <si>
+    <t>Et9kgGMDl729KT4</t>
+  </si>
+  <si>
+    <t>IQ2d7wF4YD8zU1Q</t>
+  </si>
+  <si>
+    <t>LYwnQax7tkwH5Cb</t>
+  </si>
+  <si>
+    <t>LlT2YUhhzqhg5Sw</t>
+  </si>
+  <si>
+    <t>McdE0feGgRqW7Ca</t>
+  </si>
+  <si>
+    <t>Mx2yZCDsyf6DPfv</t>
+  </si>
+  <si>
+    <t>NgDl19wMapZy17u</t>
+  </si>
+  <si>
+    <t>PeE6FRyGXUgsRhN</t>
+  </si>
+  <si>
+    <t>Qf4GUc1pJu5T6c6</t>
+  </si>
+  <si>
+    <t>Quc1TzYxW2pYoWX</t>
+  </si>
+  <si>
+    <t>V94E5Ben1TlhnDV</t>
+  </si>
+  <si>
+    <t>VHMLBKoKgIrUVDU</t>
+  </si>
+  <si>
+    <t>WRmjgnKYAwPKWDb</t>
+  </si>
+  <si>
+    <t>WcxssY2VbP4hApt</t>
+  </si>
+  <si>
+    <t>YxYtjZvoooNbGkE</t>
+  </si>
+  <si>
+    <t>ZnxXDlPa8U1GXgE</t>
+  </si>
+  <si>
+    <t>ZoEaEvLYb1n2sOq</t>
+  </si>
+  <si>
+    <t>adLQvlD726eNBSB</t>
+  </si>
+  <si>
+    <t>bvBOhCH3iADSZry</t>
+  </si>
+  <si>
+    <t>iCRJl6heRkivqQ3</t>
+  </si>
+  <si>
+    <t>ih0vzX44oOqAx2f</t>
+  </si>
+  <si>
+    <t>mqwcsP2rE7J0TFp</t>
+  </si>
+  <si>
+    <t>oZ35aAeoifZaQzV</t>
+  </si>
+  <si>
+    <t>oZZkBaNadn6DNKz</t>
+  </si>
+  <si>
+    <t>pkci93gMrogZuBj</t>
+  </si>
+  <si>
+    <t>q49J1IKaHRwDQnt</t>
+  </si>
+  <si>
+    <t>rGa61gmuvPhdLxV</t>
+  </si>
+  <si>
+    <t>rrq4fwE8jgrTyWY</t>
+  </si>
+  <si>
+    <t>sjndEbLyjtCKgGv</t>
+  </si>
+  <si>
+    <t>uHbuxQJl8lW7ozc</t>
+  </si>
+  <si>
+    <t>vOuJvMaM2sgwLmb</t>
+  </si>
+  <si>
+    <t>wCURE6d3bPkepu2</t>
+  </si>
+  <si>
+    <t>xMbIugepa2P7lBB</t>
+  </si>
+  <si>
+    <t>xoJJ8DcxJEcupym</t>
+  </si>
+  <si>
+    <t>z9Y9gH1T5YWrNuG</t>
+  </si>
+  <si>
+    <t>zBIq5rxdHJRwDNY</t>
+  </si>
+  <si>
+    <t>zVJPv84UY57bAof</t>
   </si>
 </sst>
 </file>
@@ -427,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC25C43-2591-0A4E-A366-7D1C4216914E}">
   <dimension ref="B2:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -521,4 +660,386 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97B1C8B-2FD8-6946-BA8F-25C5238763D9}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>0.97455498743951996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>0.97432559748443104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>0.97422190204685799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>0.97419661957989001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>0.97412766133378204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>0.97345189276004096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>0.97328043060691105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>0.97325797080077403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>0.97257156535162503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11">
+        <v>0.97227713630402601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>0.97187552548317901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.97159431807720298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>0.97134371575246803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>0.97127737156592198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>0.97122760464776003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>0.97101402997999797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>0.96956257229290699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.96642879893250599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.965120657605819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>0.95308690195090795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>0.83309661579847205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0.82875420851444503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>0.78897712697993505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>0.78745585953957098</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>0.76438454504346298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <v>0.63389780708947296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>0.61205837417997699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.58177761405436301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>0.56155467108665702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>0.55320970852356999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>0.498325105430871</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>0.47434063261968101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.462498973221457</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35">
+        <v>0.36546204194517201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>0.356868380861672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>0.298342732735149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>0.13828208444262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39">
+        <v>0.101422102392142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>-2.9812174669361102E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>-0.28643669672015398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42">
+        <v>-0.35827377432817797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>-0.97324239667041901</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44">
+        <v>-1.5827141697049201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>-1.6468031311924201</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B45">
+    <sortCondition descending="1" ref="B2:B45"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>